--- a/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="o554F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="o554F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,13 +955,13 @@
         <v>0.9890388194373727</v>
       </c>
       <c r="E13">
-        <v>0.9828962381417689</v>
+        <v>0.9828962381417687</v>
       </c>
       <c r="F13">
         <v>1.002243512624621</v>
       </c>
       <c r="G13">
-        <v>0.9876195213177462</v>
+        <v>0.9876195213177464</v>
       </c>
       <c r="H13">
         <v>0.9967617647457098</v>
@@ -973,10 +973,10 @@
         <v>0.9890388194373727</v>
       </c>
       <c r="K13">
-        <v>0.9859675287895708</v>
+        <v>0.9859675287895707</v>
       </c>
       <c r="L13">
-        <v>0.9941055207070959</v>
+        <v>0.994105520707096</v>
       </c>
       <c r="M13">
         <v>0.9916826142310787</v>
@@ -1034,7 +1034,7 @@
         <v>0.9925697688517625</v>
       </c>
       <c r="D15">
-        <v>1.403486764409818</v>
+        <v>1.403486764409819</v>
       </c>
       <c r="E15">
         <v>0.8934585392115453</v>
@@ -1049,10 +1049,10 @@
         <v>0.7320442331324901</v>
       </c>
       <c r="I15">
-        <v>0.9211748398454239</v>
+        <v>0.9211748398454243</v>
       </c>
       <c r="J15">
-        <v>1.403486764409818</v>
+        <v>1.403486764409819</v>
       </c>
       <c r="K15">
         <v>1.148472651810682</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.010316910868088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.749800258207028</v>
+      </c>
+      <c r="D16">
+        <v>0.2761562175175173</v>
+      </c>
+      <c r="E16">
+        <v>1.047988804147873</v>
+      </c>
+      <c r="F16">
+        <v>1.749800258207028</v>
+      </c>
+      <c r="G16">
+        <v>0.5946063655581701</v>
+      </c>
+      <c r="H16">
+        <v>1.16863442246823</v>
+      </c>
+      <c r="I16">
+        <v>1.13665739027051</v>
+      </c>
+      <c r="J16">
+        <v>0.2761562175175173</v>
+      </c>
+      <c r="K16">
+        <v>0.6620725108326952</v>
+      </c>
+      <c r="L16">
+        <v>1.205936384519862</v>
+      </c>
+      <c r="M16">
+        <v>0.9956405763615549</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.749800258207028</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
@@ -958,13 +958,13 @@
         <v>0.9890388194373727</v>
       </c>
       <c r="E13">
-        <v>0.9828962381417687</v>
+        <v>0.9828962381417689</v>
       </c>
       <c r="F13">
         <v>1.002243512624621</v>
       </c>
       <c r="G13">
-        <v>0.9876195213177464</v>
+        <v>0.9876195213177462</v>
       </c>
       <c r="H13">
         <v>0.9967617647457098</v>
@@ -976,10 +976,10 @@
         <v>0.9890388194373727</v>
       </c>
       <c r="K13">
-        <v>0.9859675287895707</v>
+        <v>0.9859675287895708</v>
       </c>
       <c r="L13">
-        <v>0.994105520707096</v>
+        <v>0.9941055207070959</v>
       </c>
       <c r="M13">
         <v>0.9916826142310787</v>
@@ -1037,7 +1037,7 @@
         <v>0.9925697688517625</v>
       </c>
       <c r="D15">
-        <v>1.403486764409819</v>
+        <v>1.403486764409818</v>
       </c>
       <c r="E15">
         <v>0.8934585392115453</v>
@@ -1052,10 +1052,10 @@
         <v>0.7320442331324901</v>
       </c>
       <c r="I15">
-        <v>0.9211748398454243</v>
+        <v>0.9211748398454239</v>
       </c>
       <c r="J15">
-        <v>1.403486764409819</v>
+        <v>1.403486764409818</v>
       </c>
       <c r="K15">
         <v>1.148472651810682</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.0748960000000001</v>
+        <v>1.749800258207028</v>
       </c>
       <c r="D10">
-        <v>0.1761840000000006</v>
+        <v>0.2761562175175173</v>
       </c>
       <c r="E10">
-        <v>1.196495999999997</v>
+        <v>1.047988804147873</v>
       </c>
       <c r="F10">
-        <v>0.0748960000000001</v>
+        <v>1.749800258207028</v>
       </c>
       <c r="G10">
-        <v>0.6403520000000004</v>
+        <v>0.5946063655581701</v>
       </c>
       <c r="H10">
-        <v>5.223480000000011</v>
+        <v>1.16863442246823</v>
       </c>
       <c r="I10">
-        <v>0.8396599999999987</v>
+        <v>1.13665739027051</v>
       </c>
       <c r="J10">
-        <v>0.1761840000000006</v>
+        <v>0.2761562175175173</v>
       </c>
       <c r="K10">
-        <v>0.686339999999999</v>
+        <v>0.6620725108326952</v>
       </c>
       <c r="L10">
-        <v>0.3806179999999995</v>
+        <v>1.205936384519862</v>
       </c>
       <c r="M10">
-        <v>1.358511333333335</v>
+        <v>0.9956405763615549</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>1.006228476626889</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2779143930984984</v>
       </c>
       <c r="E11">
-        <v>1.017362500000002</v>
+        <v>1.111730827364047</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>1.006228476626889</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.164349911705717</v>
       </c>
       <c r="H11">
-        <v>8.854112499999994</v>
+        <v>0.7329516657898454</v>
       </c>
       <c r="I11">
-        <v>0.7745874999999993</v>
+        <v>0.9417280633420867</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2779143930984984</v>
       </c>
       <c r="K11">
-        <v>0.5086812500000008</v>
+        <v>0.6948226102312728</v>
       </c>
       <c r="L11">
-        <v>0.2593406250000004</v>
+        <v>0.8505255434290807</v>
       </c>
       <c r="M11">
-        <v>1.776010416666666</v>
+        <v>0.8724838896545138</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4290100833279992</v>
+        <v>0.9898982363911495</v>
       </c>
       <c r="D12">
-        <v>0.4300584056832036</v>
+        <v>0.2784406037713952</v>
       </c>
       <c r="E12">
-        <v>1.047442264371203</v>
+        <v>1.116686367963759</v>
       </c>
       <c r="F12">
-        <v>0.4290100833279992</v>
+        <v>0.9898982363911495</v>
       </c>
       <c r="G12">
-        <v>0.3965146263552006</v>
+        <v>1.166667449041278</v>
       </c>
       <c r="H12">
-        <v>5.379051837030389</v>
+        <v>0.7300729902747739</v>
       </c>
       <c r="I12">
-        <v>0.8898836360192018</v>
+        <v>0.943046417429923</v>
       </c>
       <c r="J12">
-        <v>0.4300584056832036</v>
+        <v>0.2784406037713952</v>
       </c>
       <c r="K12">
-        <v>0.7387503350272032</v>
+        <v>0.6975634858675772</v>
       </c>
       <c r="L12">
-        <v>0.5838802091776012</v>
+        <v>0.8437308611293634</v>
       </c>
       <c r="M12">
-        <v>1.428660142131199</v>
+        <v>0.8708020108120466</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002243512624621</v>
+        <v>1.004171626794477</v>
       </c>
       <c r="D13">
-        <v>0.9890388194373727</v>
+        <v>0.2778248932673483</v>
       </c>
       <c r="E13">
-        <v>0.9828962381417689</v>
+        <v>1.114752660545838</v>
       </c>
       <c r="F13">
-        <v>1.002243512624621</v>
+        <v>1.004171626794477</v>
       </c>
       <c r="G13">
-        <v>0.9876195213177462</v>
+        <v>1.164215448522576</v>
       </c>
       <c r="H13">
-        <v>0.9967617647457098</v>
+        <v>0.7275662548484654</v>
       </c>
       <c r="I13">
-        <v>0.9915358291192526</v>
+        <v>0.9425816035884211</v>
       </c>
       <c r="J13">
-        <v>0.9890388194373727</v>
+        <v>0.2778248932673483</v>
       </c>
       <c r="K13">
-        <v>0.9859675287895708</v>
+        <v>0.6962887769065933</v>
       </c>
       <c r="L13">
-        <v>0.9941055207070959</v>
+        <v>0.8502302018505352</v>
       </c>
       <c r="M13">
-        <v>0.9916826142310787</v>
+        <v>0.8718520812611876</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7586173061555574</v>
+        <v>0.0748960000000001</v>
       </c>
       <c r="D14">
-        <v>1.049502901720204</v>
+        <v>0.1761840000000006</v>
       </c>
       <c r="E14">
-        <v>1.214131600674442</v>
+        <v>1.196495999999997</v>
       </c>
       <c r="F14">
-        <v>0.7586173061555574</v>
+        <v>0.0748960000000001</v>
       </c>
       <c r="G14">
-        <v>1.047355794254368</v>
+        <v>0.6403520000000004</v>
       </c>
       <c r="H14">
-        <v>1.04644598680168</v>
+        <v>5.223480000000011</v>
       </c>
       <c r="I14">
-        <v>0.9953858845190041</v>
+        <v>0.8396599999999987</v>
       </c>
       <c r="J14">
-        <v>1.049502901720204</v>
+        <v>0.1761840000000006</v>
       </c>
       <c r="K14">
-        <v>1.131817251197323</v>
+        <v>0.686339999999999</v>
       </c>
       <c r="L14">
-        <v>0.9452172786764403</v>
+        <v>0.3806179999999995</v>
       </c>
       <c r="M14">
-        <v>1.018573245687543</v>
+        <v>1.358511333333335</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9925697688517625</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>1.403486764409818</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8934585392115453</v>
+        <v>1.017362500000002</v>
       </c>
       <c r="F15">
-        <v>0.9925697688517625</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>1.119167319757488</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.7320442331324901</v>
+        <v>8.854112499999994</v>
       </c>
       <c r="I15">
-        <v>0.9211748398454239</v>
+        <v>0.7745874999999993</v>
       </c>
       <c r="J15">
-        <v>1.403486764409818</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.148472651810682</v>
+        <v>0.5086812500000008</v>
       </c>
       <c r="L15">
-        <v>1.070521210331222</v>
+        <v>0.2593406250000004</v>
       </c>
       <c r="M15">
-        <v>1.010316910868088</v>
+        <v>1.776010416666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.749800258207028</v>
+        <v>0.4290100833279992</v>
       </c>
       <c r="D16">
-        <v>0.2761562175175173</v>
+        <v>0.4300584056832036</v>
       </c>
       <c r="E16">
-        <v>1.047988804147873</v>
+        <v>1.047442264371203</v>
       </c>
       <c r="F16">
-        <v>1.749800258207028</v>
+        <v>0.4290100833279992</v>
       </c>
       <c r="G16">
-        <v>0.5946063655581701</v>
+        <v>0.3965146263552006</v>
       </c>
       <c r="H16">
-        <v>1.16863442246823</v>
+        <v>5.379051837030389</v>
       </c>
       <c r="I16">
-        <v>1.13665739027051</v>
+        <v>0.8898836360192018</v>
       </c>
       <c r="J16">
-        <v>0.2761562175175173</v>
+        <v>0.4300584056832036</v>
       </c>
       <c r="K16">
-        <v>0.6620725108326952</v>
+        <v>0.7387503350272032</v>
       </c>
       <c r="L16">
-        <v>1.205936384519862</v>
+        <v>0.5838802091776012</v>
       </c>
       <c r="M16">
-        <v>0.9956405763615549</v>
+        <v>1.428660142131199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.002243512624621</v>
+      </c>
+      <c r="D17">
+        <v>0.9890388194373727</v>
+      </c>
+      <c r="E17">
+        <v>0.9828962381417687</v>
+      </c>
+      <c r="F17">
+        <v>1.002243512624621</v>
+      </c>
+      <c r="G17">
+        <v>0.9876195213177464</v>
+      </c>
+      <c r="H17">
+        <v>0.9967617647457098</v>
+      </c>
+      <c r="I17">
+        <v>0.9915358291192526</v>
+      </c>
+      <c r="J17">
+        <v>0.9890388194373727</v>
+      </c>
+      <c r="K17">
+        <v>0.9859675287895707</v>
+      </c>
+      <c r="L17">
+        <v>0.994105520707096</v>
+      </c>
+      <c r="M17">
+        <v>0.9916826142310787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.7586173061555574</v>
+      </c>
+      <c r="D18">
+        <v>1.049502901720204</v>
+      </c>
+      <c r="E18">
+        <v>1.214131600674442</v>
+      </c>
+      <c r="F18">
+        <v>0.7586173061555574</v>
+      </c>
+      <c r="G18">
+        <v>1.047355794254368</v>
+      </c>
+      <c r="H18">
+        <v>1.04644598680168</v>
+      </c>
+      <c r="I18">
+        <v>0.9953858845190041</v>
+      </c>
+      <c r="J18">
+        <v>1.049502901720204</v>
+      </c>
+      <c r="K18">
+        <v>1.131817251197323</v>
+      </c>
+      <c r="L18">
+        <v>0.9452172786764403</v>
+      </c>
+      <c r="M18">
+        <v>1.018573245687543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9925697688517625</v>
+      </c>
+      <c r="D19">
+        <v>1.403486764409819</v>
+      </c>
+      <c r="E19">
+        <v>0.8934585392115453</v>
+      </c>
+      <c r="F19">
+        <v>0.9925697688517625</v>
+      </c>
+      <c r="G19">
+        <v>1.119167319757488</v>
+      </c>
+      <c r="H19">
+        <v>0.7320442331324901</v>
+      </c>
+      <c r="I19">
+        <v>0.9211748398454243</v>
+      </c>
+      <c r="J19">
+        <v>1.403486764409819</v>
+      </c>
+      <c r="K19">
+        <v>1.148472651810682</v>
+      </c>
+      <c r="L19">
+        <v>1.070521210331222</v>
+      </c>
+      <c r="M19">
+        <v>1.010316910868088</v>
       </c>
     </row>
   </sheetData>
